--- a/medicine/Enfance/Les_Trois_Ourses/Les_Trois_Ourses.xlsx
+++ b/medicine/Enfance/Les_Trois_Ourses/Les_Trois_Ourses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Trois Ourses est une association loi de 1901 qui a pour but de défendre et diffuser des « livres artistiques » pour enfants. Elle conçoit aussi des expositions et des ateliers (workshops, laboratori) en France[1] et en Europe[2].
-Elle est connue pour la diffusion d'œuvres graphiques atypiques destinés aux jeunes lecteurs[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Trois Ourses est une association loi de 1901 qui a pour but de défendre et diffuser des « livres artistiques » pour enfants. Elle conçoit aussi des expositions et des ateliers (workshops, laboratori) en France et en Europe.
+Elle est connue pour la diffusion d'œuvres graphiques atypiques destinés aux jeunes lecteurs.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée en 1988[4] par trois bibliothécaires (Odile Belkeddar, Élisabeth Lortic, Annie Mirabel[5],[6]), l'association est sise dans le 11e arrondissement de Paris. Les fondatrices croisent alors la route de l'artiste italien Bruno Munari, puis de nombreux artistes majeurs qui se tournent vers les « très petits », Enzo Mari, Tana Hoban, Katsumi Komagata, Paul Cox[7], Marion Bataille[8] Louise-Marie Cumont… Le but de l'association est avant tout « la stimulation précoce de l’imagination des tout-petits, le maintien de leur capacité d’émerveillement vont leur permettre, la vie durant, d’entretenir un dialogue intime, singulier et constructif avec le monde qui les entoure. »[9]
-L'illustratrice néerlandaise Gerda Muller est membre d'honneur de l'association[10].
-En mai 2008, l'association a fêté ses 20 ans à la bibliothèque de Limoges par une exposition et une journée d'étude intitulées « 20 ans de livres épatants ! La collection des trois ourses[11] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 1988 par trois bibliothécaires (Odile Belkeddar, Élisabeth Lortic, Annie Mirabel,), l'association est sise dans le 11e arrondissement de Paris. Les fondatrices croisent alors la route de l'artiste italien Bruno Munari, puis de nombreux artistes majeurs qui se tournent vers les « très petits », Enzo Mari, Tana Hoban, Katsumi Komagata, Paul Cox, Marion Bataille Louise-Marie Cumont… Le but de l'association est avant tout « la stimulation précoce de l’imagination des tout-petits, le maintien de leur capacité d’émerveillement vont leur permettre, la vie durant, d’entretenir un dialogue intime, singulier et constructif avec le monde qui les entoure. »
+L'illustratrice néerlandaise Gerda Muller est membre d'honneur de l'association.
+En mai 2008, l'association a fêté ses 20 ans à la bibliothèque de Limoges par une exposition et une journée d'étude intitulées « 20 ans de livres épatants ! La collection des trois ourses ».
 </t>
         </is>
       </c>
